--- a/src/main/webapp/download/集客完成率.xlsx
+++ b/src/main/webapp/download/集客完成率.xlsx
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,173 +53,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
-  <si>
-    <t>2015年6月集客销售经理工资结算</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>档次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>离职时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>片区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>所属组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>集客经理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>入职时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>底薪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>住房补贴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绩效工资</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>业务提成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单项考核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>增补</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工资</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>指标完成率得分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绩效工资</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>城区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>集客经理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>黄义凯</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>裴沛</t>
   </si>
   <si>
     <t>北区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>北区专员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>吴四一</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>南区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>长安区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>陈志鹏</t>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>东区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>清溪区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>韩相力</t>
   </si>
   <si>
     <t>城区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>东城区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>方华东</t>
   </si>
   <si>
     <t>中区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>大朗区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>欧阳德青</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
     <t>南区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>虎门区</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>张远庭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>集客专员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>王立斌</t>
@@ -229,7 +217,7 @@
   </si>
   <si>
     <t>汇总</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -243,7 +231,7 @@
     <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,15 +244,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -360,21 +339,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -409,55 +379,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,7 +433,7 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -475,28 +442,28 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -18871,711 +18838,687 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="12.875" style="26" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="27" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="27" customWidth="1"/>
-    <col min="9" max="10" width="11.875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9" style="3"/>
-    <col min="15" max="15" width="10.375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="12.875" style="25" customWidth="1"/>
+    <col min="5" max="6" width="11.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="26" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="26" customWidth="1"/>
+    <col min="9" max="10" width="11.875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="10.375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="N1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4">
+        <f>VLOOKUP(C4,[1]底薪计算!D:K,8,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5">
-        <f>VLOOKUP(C5,[1]底薪计算!D:K,8,FALSE)</f>
+      <c r="D2" s="4">
+        <v>41825</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1600</v>
+      </c>
+      <c r="F2" s="10">
+        <v>200</v>
+      </c>
+      <c r="G2" s="11">
+        <f t="shared" ref="G2:G3" si="0">L2*M2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <f>VLOOKUP(C2,[1]提成计算!$B:$AJ,34,FALSE)</f>
+        <v>183.072</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12">
+        <f t="shared" ref="K2:K11" si="1">SUM(E2:J2)</f>
+        <v>1983.0720000000001</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1800</v>
+      </c>
+      <c r="O2" s="14">
+        <f t="shared" ref="O2:O3" si="2">G2+H2</f>
+        <v>183.072</v>
+      </c>
+      <c r="P2" s="15">
+        <f>VLOOKUP(C3,[1]底薪计算!D:K,8,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
+      <c r="D3" s="15">
+        <v>42095</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5">
-        <v>41825</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>1600</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>200</v>
       </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G4" si="0">L3*M3</f>
+      <c r="G3" s="11">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="H3" s="11">
+        <f>VLOOKUP(C3,[1]提成计算!$B:$AJ,34,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="12">
-        <f>VLOOKUP(C3,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>183.072</v>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12">
+        <f t="shared" si="1"/>
+        <v>2880</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13">
-        <f t="shared" ref="K3:K12" si="1">SUM(E3:J3)</f>
-        <v>1983.0720000000001</v>
+      <c r="L3" s="13">
+        <v>0.6</v>
       </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>1800</v>
       </c>
-      <c r="O3" s="15">
-        <f t="shared" ref="O3:O4" si="2">G3+H3</f>
-        <v>183.072</v>
+      <c r="O3" s="14">
+        <f t="shared" si="2"/>
+        <v>1080</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="15">
         <f>VLOOKUP(C4,[1]底薪计算!D:K,8,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16">
-        <v>42095</v>
+      <c r="D4" s="4">
+        <v>41821</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>1600</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>200</v>
       </c>
-      <c r="G4" s="12">
-        <f t="shared" si="0"/>
-        <v>1080</v>
+      <c r="G4" s="11">
+        <f t="shared" ref="G4:G11" si="3">M4*L4</f>
+        <v>835.6040578515034</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f>VLOOKUP(C4,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>0</v>
+        <v>1647.8628000000001</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13">
-        <f t="shared" si="1"/>
-        <v>2880</v>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12">
+        <f>SUM(E4:J4)</f>
+        <v>4283.4668578515038</v>
       </c>
-      <c r="L4" s="14">
-        <v>0.6</v>
+      <c r="L4" s="13">
+        <v>0.46422447658416854</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="16">
+        <f t="shared" ref="M4:M11" si="4">IF(N4="A",2000,IF(N4="B",1800,IF(N4="C",1600)))</f>
         <v>1800</v>
       </c>
-      <c r="O4" s="15">
-        <f t="shared" si="2"/>
-        <v>1080</v>
+      <c r="N4" s="17" t="s">
+        <v>20</v>
       </c>
-      <c r="P4" s="16">
+      <c r="O4" s="14">
+        <f>G4+H4</f>
+        <v>2483.4668578515034</v>
+      </c>
+      <c r="P4" s="15">
         <f>VLOOKUP(C5,[1]底薪计算!D:K,8,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5">
-        <v>41821</v>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
       </c>
-      <c r="E5" s="11">
+      <c r="D5" s="4">
+        <v>41883</v>
+      </c>
+      <c r="E5" s="10">
         <v>1600</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>200</v>
       </c>
-      <c r="G5" s="12">
-        <f t="shared" ref="G5:G12" si="3">M5*L5</f>
-        <v>835.6040578515034</v>
+      <c r="G5" s="11">
+        <f t="shared" si="3"/>
+        <v>1852.5066515207741</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f>VLOOKUP(C5,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>1647.8628000000001</v>
+        <v>2558.1311545289332</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13">
-        <f>SUM(E5:J5)</f>
-        <v>4283.4668578515038</v>
+      <c r="I5" s="18">
+        <v>-200</v>
       </c>
-      <c r="L5" s="14">
-        <v>0.46422447658416854</v>
+      <c r="J5" s="18"/>
+      <c r="K5" s="12">
+        <f t="shared" si="1"/>
+        <v>6010.6378060497073</v>
       </c>
-      <c r="M5" s="17">
-        <f t="shared" ref="M5:M12" si="4">IF(N5="A",2000,IF(N5="B",1800,IF(N5="C",1600)))</f>
+      <c r="L5" s="19">
+        <v>1.0291703619559855</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>23</v>
+      <c r="N5" s="17" t="s">
+        <v>24</v>
       </c>
-      <c r="O5" s="15">
-        <f>G5+H5</f>
-        <v>2483.4668578515034</v>
-      </c>
-      <c r="P5" s="16">
+      <c r="O5" s="16"/>
+      <c r="P5" s="15">
         <f>VLOOKUP(C6,[1]底薪计算!D:K,8,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="Y5" s="21">
+        <f t="shared" ref="Y5:Y8" si="5">G5+H5+I5+K5</f>
+        <v>10221.275612099415</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5">
-        <v>41883</v>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
       </c>
-      <c r="E6" s="11">
+      <c r="D6" s="4">
+        <v>41897</v>
+      </c>
+      <c r="E6" s="10">
         <v>1600</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>200</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f t="shared" si="3"/>
-        <v>1852.5066515207741</v>
+        <v>801.70386816686027</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f>VLOOKUP(C6,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>2558.1311545289332</v>
+        <v>800.95257142753826</v>
       </c>
-      <c r="I6" s="19">
-        <v>-200</v>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
+        <v>3402.6564395943983</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="13">
-        <f t="shared" si="1"/>
-        <v>6010.6378060497073</v>
+      <c r="L6" s="19">
+        <v>0.44539103787047796</v>
       </c>
-      <c r="L6" s="20">
-        <v>1.0291703619559855</v>
-      </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>27</v>
+      <c r="N6" s="17" t="s">
+        <v>24</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="16">
+      <c r="O6" s="16"/>
+      <c r="P6" s="15">
         <f>VLOOKUP(C7,[1]底薪计算!D:K,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="Y6" s="22">
-        <f t="shared" ref="Y6:Y9" si="5">G6+H6+I6+K6</f>
-        <v>10221.275612099415</v>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="Y6" s="21">
+        <f t="shared" si="5"/>
+        <v>5005.3128791887966</v>
       </c>
-      <c r="Z6" s="20">
-        <v>0.7142857142857143</v>
+      <c r="Z6" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5">
-        <v>41897</v>
+      <c r="D7" s="4">
+        <v>41892</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>1600</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>200</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f t="shared" si="3"/>
-        <v>801.70386816686027</v>
+        <v>1004.3806713094384</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f>VLOOKUP(C7,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>800.95257142753826</v>
+        <v>1910.768</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="13">
+      <c r="I7" s="18">
+        <v>200</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="12">
         <f t="shared" si="1"/>
-        <v>3402.6564395943983</v>
+        <v>4915.1486713094382</v>
       </c>
-      <c r="L7" s="20">
-        <v>0.44539103787047796</v>
+      <c r="L7" s="19">
+        <v>0.55798926183857689</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>27</v>
+      <c r="N7" s="17" t="s">
+        <v>24</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="16">
+      <c r="O7" s="16"/>
+      <c r="P7" s="15">
         <f>VLOOKUP(C8,[1]底薪计算!D:K,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="Y7" s="22">
+      <c r="Q7" s="20"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="Y7" s="21">
         <f t="shared" si="5"/>
-        <v>5005.3128791887966</v>
+        <v>8030.2973426188764</v>
       </c>
-      <c r="Z7" s="20">
-        <v>0.75</v>
+      <c r="Z7" s="19">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5">
-        <v>41892</v>
+      <c r="D8" s="4">
+        <v>41883</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>1600</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>200</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f t="shared" si="3"/>
-        <v>1004.3806713094384</v>
+        <v>1272.3011459685554</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <f>VLOOKUP(C8,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>1910.768</v>
+        <v>1952.2759999999998</v>
       </c>
-      <c r="I8" s="19">
-        <v>200</v>
+      <c r="I8" s="18">
+        <v>-200</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="13">
+      <c r="J8" s="18"/>
+      <c r="K8" s="12">
         <f t="shared" si="1"/>
-        <v>4915.1486713094382</v>
+        <v>4824.5771459685548</v>
       </c>
-      <c r="L8" s="20">
-        <v>0.55798926183857689</v>
+      <c r="L8" s="19">
+        <v>0.63615057298427768</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <f t="shared" si="4"/>
-        <v>1800</v>
+        <v>2000</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>27</v>
+      <c r="N8" s="17" t="s">
+        <v>34</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16">
+      <c r="O8" s="16"/>
+      <c r="P8" s="15">
         <f>VLOOKUP(C9,[1]底薪计算!D:K,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="Y8" s="22">
+      <c r="Q8" s="20"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="Y8" s="21">
         <f t="shared" si="5"/>
-        <v>8030.2973426188764</v>
+        <v>7849.1542919371095</v>
       </c>
-      <c r="Z8" s="20">
-        <v>0.66666666666666663</v>
+      <c r="Z8" s="19">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5">
-        <v>41883</v>
+      <c r="C9" s="22" t="s">
+        <v>37</v>
       </c>
-      <c r="E9" s="11">
+      <c r="D9" s="4">
+        <v>42095</v>
+      </c>
+      <c r="E9" s="10">
         <v>1600</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>200</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f t="shared" si="3"/>
-        <v>1272.3011459685554</v>
+        <v>581.99924935288232</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <f>VLOOKUP(C9,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>1952.2759999999998</v>
+        <v>588.7797823123359</v>
       </c>
-      <c r="I9" s="19">
-        <v>-200</v>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>2970.7790316652186</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="13">
-        <f t="shared" si="1"/>
-        <v>4824.5771459685548</v>
+      <c r="L9" s="19">
+        <v>0.36374953084555145</v>
       </c>
-      <c r="L9" s="20">
-        <v>0.63615057298427768</v>
+      <c r="M9" s="16">
+        <f t="shared" si="4"/>
+        <v>1600</v>
       </c>
-      <c r="M9" s="17">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+      <c r="N9" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="16">
+      <c r="O9" s="16"/>
+      <c r="P9" s="15">
         <f>VLOOKUP(C10,[1]底薪计算!D:K,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="Y9" s="22">
-        <f t="shared" si="5"/>
-        <v>7849.1542919371095</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="23" t="s">
-        <v>38</v>
+      <c r="A10" s="22" t="s">
+        <v>35</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="5">
-        <v>42095</v>
+      <c r="D10" s="4">
+        <v>42144</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>1600</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>200</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="3"/>
-        <v>581.99924935288232</v>
+        <v>739.13254851142415</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>VLOOKUP(C10,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>588.7797823123359</v>
+        <v>0</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="13">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="12">
         <f t="shared" si="1"/>
-        <v>2970.7790316652186</v>
+        <v>2539.1325485114239</v>
       </c>
-      <c r="L10" s="20">
-        <v>0.36374953084555145</v>
+      <c r="L10" s="19">
+        <v>0.46195784281964009</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <f t="shared" si="4"/>
         <v>1600</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>41</v>
+      <c r="N10" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="16">
+      <c r="O10" s="16"/>
+      <c r="P10" s="15">
         <f>VLOOKUP(C11,[1]底薪计算!D:K,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="20"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="23" t="s">
-        <v>38</v>
+      <c r="A11" s="22" t="s">
+        <v>35</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>42</v>
+      <c r="B11" s="22" t="s">
+        <v>39</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>43</v>
+      <c r="C11" s="22" t="s">
+        <v>41</v>
       </c>
-      <c r="D11" s="5">
-        <v>42144</v>
+      <c r="D11" s="24">
+        <v>42125</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>1600</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>200</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="3"/>
-        <v>739.13254851142415</v>
+        <v>1381.5142445634883</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f>VLOOKUP(C11,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>0</v>
+        <v>176.14306618184477</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="13">
+      <c r="I11" s="18">
+        <v>200</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="12">
         <f t="shared" si="1"/>
-        <v>2539.1325485114239</v>
+        <v>3557.6573107453332</v>
       </c>
-      <c r="L11" s="20">
-        <v>0.46195784281964009</v>
+      <c r="L11" s="19">
+        <v>0.86344640285218022</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <f t="shared" si="4"/>
         <v>1600</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>41</v>
+      <c r="N11" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="16">
+      <c r="O11" s="16"/>
+      <c r="P11" s="15" t="e">
         <f>VLOOKUP(C12,[1]底薪计算!D:K,8,FALSE)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="20"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="25">
-        <v>42125</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1600</v>
-      </c>
-      <c r="F12" s="11">
-        <v>200</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="3"/>
-        <v>1381.5142445634883</v>
-      </c>
-      <c r="H12" s="12">
-        <f>VLOOKUP(C12,[1]提成计算!$B:$AJ,34,FALSE)</f>
-        <v>176.14306618184477</v>
-      </c>
-      <c r="I12" s="19">
-        <v>200</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="13">
-        <f t="shared" si="1"/>
-        <v>3557.6573107453332</v>
-      </c>
-      <c r="L12" s="20">
-        <v>0.86344640285218022</v>
-      </c>
-      <c r="M12" s="17">
-        <f t="shared" si="4"/>
-        <v>1600</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="16" t="e">
-        <f>VLOOKUP(C13,[1]底薪计算!D:K,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="20"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="11">
-        <f t="shared" ref="E13:K13" si="6">SUM(E3:E12)</f>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10">
+        <f t="shared" ref="E12:K12" si="6">SUM(E2:E11)</f>
         <v>16000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G12" s="10">
         <f t="shared" si="6"/>
         <v>9549.1424372449255</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H12" s="10">
         <f t="shared" si="6"/>
         <v>9817.9853744506527</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I12" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J12" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K12" s="12">
         <f t="shared" si="6"/>
         <v>37367.12781169558</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L12" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
